--- a/Spine_Projects/01_input_data/01_input_raw/Products/hydrogen/Model_Data_Base_hydrogen_4_InOutputs.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/hydrogen/Model_Data_Base_hydrogen_4_InOutputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/hydrogen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/hydrogen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{B63BCB0A-9012-4F55-92B6-F45564B797E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C87CF05F-CE9E-44E9-A71F-D6882F35C054}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{B63BCB0A-9012-4F55-92B6-F45564B797E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CCEC9E5-6A2A-4208-9D98-A814E3DDBA72}"/>
   <bookViews>
-    <workbookView xWindow="-3840" yWindow="-21720" windowWidth="51840" windowHeight="21240" activeTab="4" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -474,6 +474,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1619,9 +1620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1764,10 +1763,10 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C7" t="s">
@@ -2541,7 +2540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DC79B9-9C58-497E-9FD8-D3F2239E9BDC}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/Spine_Projects/01_input_data/01_input_raw/Products/hydrogen/Model_Data_Base_hydrogen_4_InOutputs.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/hydrogen/Model_Data_Base_hydrogen_4_InOutputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/hydrogen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{B63BCB0A-9012-4F55-92B6-F45564B797E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CCEC9E5-6A2A-4208-9D98-A814E3DDBA72}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{B63BCB0A-9012-4F55-92B6-F45564B797E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA6FC5F6-9826-47A8-8C2B-FE392B4B1DCE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-11730" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1620,7 +1620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1755,9 +1757,6 @@
       </c>
       <c r="C6" t="s">
         <v>68</v>
-      </c>
-      <c r="N6">
-        <v>1.4865951742627345E-3</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
